--- a/data/georgia_census/imereti/tyibuli/age_dependency.xlsx
+++ b/data/georgia_census/imereti/tyibuli/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AA9E95B-9A99-4C50-A771-104A85D40E0F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01BB0634-0842-4F39-A3B1-16E3CF02339D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A91AE433-3266-4AB3-A7FC-3673650FD33B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF7AE41A-F784-4222-9359-2A7897BC5371}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B539FAE9-0373-4750-8648-C6461A3193FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7207C4D6-0183-4205-A0FA-1D9E4F9D8365}"/>
 </file>